--- a/Program/Other/URS會議審查紀錄/DbLayouts/XX-系統/TxAttachment.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/XX-系統/TxAttachment.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\XX-系統\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3D6E771-76B3-40FD-BBF5-55AC27F7420A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -98,212 +99,212 @@
     <t>最後更新人員</t>
   </si>
   <si>
+    <t>LastUpdate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>auto</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FileNo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>檔案序號</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>檔案內容</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FileItem</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FileData</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>附件檔</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>欄位名稱</t>
+  </si>
+  <si>
+    <t>中文名稱</t>
+  </si>
+  <si>
+    <t>形態</t>
+  </si>
+  <si>
+    <t>長度</t>
+  </si>
+  <si>
+    <t>小數</t>
+  </si>
+  <si>
+    <t>備註說明</t>
+  </si>
+  <si>
+    <t>file</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>100</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TranNo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易代號</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MrKey</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易參考編號</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>100</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LastUpdateEmpNo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LastUpdateEmpNo desc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Status</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>狀態</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:正常 1:刪除</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>50</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Desc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>備註</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>100</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustNo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FacmNo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BormNo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>戶號</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>額度</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>撥款</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>檔名</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreateEmpNo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>附件類別</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TypeItem</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TranNo = ,AND MrKey =</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>findByTran</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>CreateDate</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>CreateEmpNo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>LastUpdate</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>auto</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>FileNo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>檔案序號</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>檔案內容</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>FileData</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>輸出檔名</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>findByDate</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>TxAttachment</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>附件檔</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>欄位名稱</t>
-  </si>
-  <si>
-    <t>中文名稱</t>
-  </si>
-  <si>
-    <t>形態</t>
-  </si>
-  <si>
-    <t>長度</t>
-  </si>
-  <si>
-    <t>小數</t>
-  </si>
-  <si>
-    <t>備註說明</t>
-  </si>
-  <si>
-    <t>file</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>100</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>TranNo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>交易代號</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>MrKey</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>交易參考編號</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>100</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>FileDate = ,AND TranNo = ,AND MrKey =</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>LastUpdateEmpNo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>LastUpdateEmpNo desc</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Status</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>狀態</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>decimal</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0:正常 1:刪除</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>FileOutput</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>附件類別</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>50</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Desc</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>備註</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>TypeItem</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>100</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CustNo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>FacmNo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>BormNo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>戶號</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>額度</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>撥款</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>7</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>decimal</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -487,80 +488,80 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
-    <cellStyle name="一般 2 2" xfId="2"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -651,6 +652,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -686,6 +704,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -861,414 +896,414 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.109375" style="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.109375" style="24" customWidth="1"/>
+    <col min="1" max="1" width="5.109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.109375" style="20" customWidth="1"/>
     <col min="3" max="3" width="27" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.44140625" style="29" customWidth="1"/>
-    <col min="5" max="6" width="5.77734375" style="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" style="25" customWidth="1"/>
+    <col min="5" max="6" width="5.77734375" style="20" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="35.33203125" style="4" customWidth="1"/>
-    <col min="8" max="16384" width="21.44140625" style="13"/>
+    <col min="8" max="16384" width="21.44140625" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="9" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="8"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="10"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="26"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="15"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="29"/>
+      <c r="C3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="16"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="15"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="28"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="15"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="29"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="15"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="27"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="15"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="28"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="15"/>
+    </row>
+    <row r="8" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E8" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="10"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="12"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="7"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="17"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="19"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="17"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="17"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="17"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="17"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="17"/>
-    </row>
-    <row r="8" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="14" t="s">
+      <c r="F8" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="G8" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="G8" s="22" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="24">
+      <c r="A9" s="20">
         <v>1</v>
       </c>
-      <c r="B9" s="25" t="s">
-        <v>23</v>
+      <c r="B9" s="21" t="s">
+        <v>21</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="28"/>
+      <c r="D9" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="24"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="24">
+      <c r="A10" s="20">
         <f>A9+1</f>
         <v>2</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>40</v>
+      <c r="B10" s="7" t="s">
+        <v>36</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="F10" s="27"/>
-      <c r="G10" s="28"/>
+      <c r="E10" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="23"/>
+      <c r="G10" s="24"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="24">
+      <c r="A11" s="20">
         <f t="shared" ref="A11:A23" si="0">A10+1</f>
         <v>3</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>61</v>
+      <c r="B11" s="7" t="s">
+        <v>53</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D11" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="E11" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="F11" s="27"/>
-      <c r="G11" s="28"/>
+        <v>56</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="23"/>
+      <c r="G11" s="24"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="24">
+      <c r="A12" s="20">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>62</v>
+      <c r="B12" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D12" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="E12" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="F12" s="27"/>
-      <c r="G12" s="28"/>
+        <v>57</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" s="23"/>
+      <c r="G12" s="24"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="24">
+      <c r="A13" s="20">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>63</v>
+      <c r="B13" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D13" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="E13" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="F13" s="27"/>
-      <c r="G13" s="28"/>
+        <v>58</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="23"/>
+      <c r="G13" s="24"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="24">
+      <c r="A14" s="20">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>43</v>
+      <c r="B14" s="7" t="s">
+        <v>39</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="F14" s="27"/>
-      <c r="G14" s="28"/>
+        <v>40</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="23"/>
+      <c r="G14" s="24"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="24">
+      <c r="A15" s="20">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B15" s="9" t="s">
-        <v>59</v>
+      <c r="B15" s="7" t="s">
+        <v>66</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D15" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="F15" s="27"/>
-      <c r="G15" s="28"/>
+        <v>65</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="23"/>
+      <c r="G15" s="24"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="24">
+      <c r="A16" s="20">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>54</v>
+      <c r="B16" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="F16" s="27"/>
-      <c r="G16" s="28"/>
+        <v>63</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" s="23"/>
+      <c r="G16" s="24"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="24">
+      <c r="A17" s="20">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>26</v>
+      <c r="B17" s="7" t="s">
+        <v>25</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="28"/>
+        <v>23</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="24"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="24">
+      <c r="A18" s="20">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>57</v>
+      <c r="B18" s="7" t="s">
+        <v>50</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D18" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="E18" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="F18" s="27"/>
-      <c r="G18" s="28"/>
+        <v>51</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18" s="23"/>
+      <c r="G18" s="24"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="24">
+      <c r="A19" s="20">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B19" s="9" t="s">
-        <v>49</v>
+      <c r="B19" s="7" t="s">
+        <v>44</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D19" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="E19" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="F19" s="27"/>
-      <c r="G19" s="28" t="s">
-        <v>53</v>
+        <v>45</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" s="23"/>
+      <c r="G19" s="24" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="24">
+      <c r="A20" s="20">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="26" t="s">
+      <c r="D20" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="27"/>
-    </row>
-    <row r="21" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A21" s="24">
+      <c r="E20" s="23"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="20">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="26" t="s">
+      <c r="D21" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="E21" s="27">
+      <c r="E21" s="23">
         <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="24">
+      <c r="A22" s="20">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="26" t="s">
+      <c r="D22" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="E22" s="27"/>
-    </row>
-    <row r="23" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A23" s="24">
+      <c r="E22" s="23"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="20">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="26" t="s">
+      <c r="D23" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="E23" s="27">
+      <c r="E23" s="23">
         <v>6</v>
       </c>
     </row>
@@ -1289,12 +1324,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1318,13 +1353,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/URS會議審查紀錄/DbLayouts/XX-系統/TxAttachment.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/XX-系統/TxAttachment.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\XX-系統\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3D6E771-76B3-40FD-BBF5-55AC27F7420A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -189,10 +188,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>LastUpdateEmpNo desc</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Status</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -298,13 +293,17 @@
   </si>
   <si>
     <t>TxAttachment</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreateDate desc</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -560,8 +559,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="一般 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="一般 2" xfId="1"/>
+    <cellStyle name="一般 2 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -652,23 +651,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -704,23 +686,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -896,11 +861,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -920,7 +885,7 @@
       </c>
       <c r="B1" s="27"/>
       <c r="C1" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>27</v>
@@ -1065,16 +1030,16 @@
         <v>3</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F11" s="23"/>
       <c r="G11" s="24"/>
@@ -1085,16 +1050,16 @@
         <v>4</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D12" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="23" t="s">
         <v>60</v>
-      </c>
-      <c r="E12" s="23" t="s">
-        <v>61</v>
       </c>
       <c r="F12" s="23"/>
       <c r="G12" s="24"/>
@@ -1105,16 +1070,16 @@
         <v>5</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F13" s="23"/>
       <c r="G13" s="24"/>
@@ -1145,16 +1110,16 @@
         <v>7</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D15" s="22" t="s">
         <v>26</v>
       </c>
       <c r="E15" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F15" s="23"/>
       <c r="G15" s="24"/>
@@ -1168,7 +1133,7 @@
         <v>24</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D16" s="22" t="s">
         <v>26</v>
@@ -1203,16 +1168,16 @@
         <v>10</v>
       </c>
       <c r="B18" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>51</v>
       </c>
       <c r="D18" s="22" t="s">
         <v>26</v>
       </c>
       <c r="E18" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F18" s="23"/>
       <c r="G18" s="24"/>
@@ -1223,20 +1188,20 @@
         <v>11</v>
       </c>
       <c r="B19" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="D19" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="22" t="s">
+      <c r="E19" s="23" t="s">
         <v>46</v>
-      </c>
-      <c r="E19" s="23" t="s">
-        <v>47</v>
       </c>
       <c r="F19" s="23"/>
       <c r="G19" s="24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -1245,7 +1210,7 @@
         <v>12</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C20" s="24" t="s">
         <v>13</v>
@@ -1261,7 +1226,7 @@
         <v>13</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C21" s="24" t="s">
         <v>15</v>
@@ -1324,18 +1289,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="33.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="163" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="118.77734375" style="1" customWidth="1"/>
     <col min="3" max="3" width="19" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
@@ -1353,13 +1318,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/URS會議審查紀錄/DbLayouts/XX-系統/TxAttachment.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/XX-系統/TxAttachment.xlsx
@@ -292,11 +292,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>CreateDate desc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>TxAttachment</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CreateDate desc</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -865,7 +865,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -885,7 +885,7 @@
       </c>
       <c r="B1" s="27"/>
       <c r="C1" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>27</v>
@@ -1324,7 +1324,7 @@
         <v>66</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/URS會議審查紀錄/DbLayouts/XX-系統/TxAttachment.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/XX-系統/TxAttachment.xlsx
@@ -130,36 +130,164 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>欄位名稱</t>
+  </si>
+  <si>
+    <t>中文名稱</t>
+  </si>
+  <si>
+    <t>形態</t>
+  </si>
+  <si>
+    <t>長度</t>
+  </si>
+  <si>
+    <t>小數</t>
+  </si>
+  <si>
+    <t>備註說明</t>
+  </si>
+  <si>
+    <t>file</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>100</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MrKey</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>100</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LastUpdateEmpNo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Status</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>狀態</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:正常 1:刪除</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>50</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Desc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>備註</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>100</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustNo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FacmNo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BormNo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>戶號</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>額度</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>撥款</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>檔名</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreateEmpNo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>附件類別</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TypeItem</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TranNo = ,AND MrKey =</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>findByTran</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreateDate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreateDate desc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TxAttachment</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>附件檔</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>欄位名稱</t>
-  </si>
-  <si>
-    <t>中文名稱</t>
-  </si>
-  <si>
-    <t>形態</t>
-  </si>
-  <si>
-    <t>長度</t>
-  </si>
-  <si>
-    <t>小數</t>
-  </si>
-  <si>
-    <t>備註說明</t>
-  </si>
-  <si>
-    <t>file</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>100</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>TranNo</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -168,135 +296,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>MrKey</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>交易參考編號</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>100</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>LastUpdateEmpNo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Status</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>狀態</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>decimal</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0:正常 1:刪除</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>50</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Desc</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>備註</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>100</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CustNo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>FacmNo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>BormNo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>戶號</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>額度</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>撥款</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>7</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>decimal</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>檔名</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CreateEmpNo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>附件類別</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>TypeItem</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>TranNo = ,AND MrKey =</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>findByTran</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CreateDate</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CreateDate desc</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>TxAttachment</t>
+    <t>參考編號</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -865,7 +865,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -885,10 +885,10 @@
       </c>
       <c r="B1" s="27"/>
       <c r="C1" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="E1" s="8"/>
       <c r="F1" s="9"/>
@@ -969,22 +969,22 @@
         <v>0</v>
       </c>
       <c r="B8" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="D8" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="E8" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="F8" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="G8" s="18" t="s">
         <v>32</v>
-      </c>
-      <c r="G8" s="18" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -1010,16 +1010,16 @@
         <v>2</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="D10" s="22" t="s">
         <v>12</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F10" s="23"/>
       <c r="G10" s="24"/>
@@ -1030,16 +1030,16 @@
         <v>3</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F11" s="23"/>
       <c r="G11" s="24"/>
@@ -1050,16 +1050,16 @@
         <v>4</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C12" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="23" t="s">
         <v>56</v>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="E12" s="23" t="s">
-        <v>60</v>
       </c>
       <c r="F12" s="23"/>
       <c r="G12" s="24"/>
@@ -1070,16 +1070,16 @@
         <v>5</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C13" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="23" t="s">
         <v>57</v>
-      </c>
-      <c r="D13" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="E13" s="23" t="s">
-        <v>61</v>
       </c>
       <c r="F13" s="23"/>
       <c r="G13" s="24"/>
@@ -1090,16 +1090,16 @@
         <v>6</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="D14" s="22" t="s">
         <v>26</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F14" s="23"/>
       <c r="G14" s="24"/>
@@ -1110,16 +1110,16 @@
         <v>7</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D15" s="22" t="s">
         <v>26</v>
       </c>
       <c r="E15" s="23" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F15" s="23"/>
       <c r="G15" s="24"/>
@@ -1133,13 +1133,13 @@
         <v>24</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D16" s="22" t="s">
         <v>26</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F16" s="23"/>
       <c r="G16" s="24"/>
@@ -1156,7 +1156,7 @@
         <v>23</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E17" s="23"/>
       <c r="F17" s="23"/>
@@ -1168,16 +1168,16 @@
         <v>10</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D18" s="22" t="s">
         <v>26</v>
       </c>
       <c r="E18" s="23" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F18" s="23"/>
       <c r="G18" s="24"/>
@@ -1188,20 +1188,20 @@
         <v>11</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E19" s="23" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F19" s="23"/>
       <c r="G19" s="24" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -1210,7 +1210,7 @@
         <v>12</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C20" s="24" t="s">
         <v>13</v>
@@ -1226,7 +1226,7 @@
         <v>13</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C21" s="24" t="s">
         <v>15</v>
@@ -1260,7 +1260,7 @@
         <v>15</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C23" s="24" t="s">
         <v>18</v>
@@ -1318,13 +1318,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/URS會議審查紀錄/DbLayouts/XX-系統/TxAttachment.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/XX-系統/TxAttachment.xlsx
@@ -118,185 +118,185 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>FileData</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>欄位名稱</t>
+  </si>
+  <si>
+    <t>中文名稱</t>
+  </si>
+  <si>
+    <t>形態</t>
+  </si>
+  <si>
+    <t>長度</t>
+  </si>
+  <si>
+    <t>小數</t>
+  </si>
+  <si>
+    <t>備註說明</t>
+  </si>
+  <si>
+    <t>file</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>100</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MrKey</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>100</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LastUpdateEmpNo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Status</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>狀態</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:正常 1:刪除</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>50</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Desc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>備註</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>100</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustNo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FacmNo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BormNo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>戶號</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>額度</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>撥款</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>檔名</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreateEmpNo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>附件類別</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TypeItem</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TranNo = ,AND MrKey =</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>findByTran</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreateDate desc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>附件檔</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TranNo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易代號</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>參考編號</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreateDate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TxAttachment</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>FileItem</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>FileData</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>欄位名稱</t>
-  </si>
-  <si>
-    <t>中文名稱</t>
-  </si>
-  <si>
-    <t>形態</t>
-  </si>
-  <si>
-    <t>長度</t>
-  </si>
-  <si>
-    <t>小數</t>
-  </si>
-  <si>
-    <t>備註說明</t>
-  </si>
-  <si>
-    <t>file</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>100</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>MrKey</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>100</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>LastUpdateEmpNo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Status</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>狀態</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>decimal</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0:正常 1:刪除</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>50</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Desc</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>備註</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>100</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CustNo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>FacmNo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>BormNo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>戶號</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>額度</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>撥款</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>7</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>decimal</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>檔名</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CreateEmpNo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>附件類別</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>TypeItem</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>TranNo = ,AND MrKey =</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>findByTran</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CreateDate</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CreateDate desc</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>TxAttachment</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>附件檔</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>TranNo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>交易代號</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>參考編號</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -865,7 +865,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -885,10 +885,10 @@
       </c>
       <c r="B1" s="27"/>
       <c r="C1" s="7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E1" s="8"/>
       <c r="F1" s="9"/>
@@ -969,22 +969,22 @@
         <v>0</v>
       </c>
       <c r="B8" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="D8" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="E8" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="F8" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="G8" s="18" t="s">
         <v>31</v>
-      </c>
-      <c r="G8" s="18" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -1010,16 +1010,16 @@
         <v>2</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D10" s="22" t="s">
         <v>12</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F10" s="23"/>
       <c r="G10" s="24"/>
@@ -1030,16 +1030,16 @@
         <v>3</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F11" s="23"/>
       <c r="G11" s="24"/>
@@ -1050,16 +1050,16 @@
         <v>4</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D12" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="23" t="s">
         <v>55</v>
-      </c>
-      <c r="E12" s="23" t="s">
-        <v>56</v>
       </c>
       <c r="F12" s="23"/>
       <c r="G12" s="24"/>
@@ -1070,16 +1070,16 @@
         <v>5</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F13" s="23"/>
       <c r="G13" s="24"/>
@@ -1090,16 +1090,16 @@
         <v>6</v>
       </c>
       <c r="B14" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="23" t="s">
         <v>36</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D14" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="23" t="s">
-        <v>37</v>
       </c>
       <c r="F14" s="23"/>
       <c r="G14" s="24"/>
@@ -1110,16 +1110,16 @@
         <v>7</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E15" s="23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F15" s="23"/>
       <c r="G15" s="24"/>
@@ -1130,16 +1130,16 @@
         <v>8</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F16" s="23"/>
       <c r="G16" s="24"/>
@@ -1150,13 +1150,13 @@
         <v>9</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E17" s="23"/>
       <c r="F17" s="23"/>
@@ -1168,16 +1168,16 @@
         <v>10</v>
       </c>
       <c r="B18" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="D18" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="23" t="s">
         <v>46</v>
-      </c>
-      <c r="D18" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="23" t="s">
-        <v>47</v>
       </c>
       <c r="F18" s="23"/>
       <c r="G18" s="24"/>
@@ -1188,20 +1188,20 @@
         <v>11</v>
       </c>
       <c r="B19" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="D19" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="22" t="s">
+      <c r="E19" s="23" t="s">
         <v>41</v>
-      </c>
-      <c r="E19" s="23" t="s">
-        <v>42</v>
       </c>
       <c r="F19" s="23"/>
       <c r="G19" s="24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -1210,7 +1210,7 @@
         <v>12</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C20" s="24" t="s">
         <v>13</v>
@@ -1226,7 +1226,7 @@
         <v>13</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C21" s="24" t="s">
         <v>15</v>
@@ -1260,7 +1260,7 @@
         <v>15</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C23" s="24" t="s">
         <v>18</v>
@@ -1318,13 +1318,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>63</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/URS會議審查紀錄/DbLayouts/XX-系統/TxAttachment.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/XX-系統/TxAttachment.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\XX-系統\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEE2E950-6789-446C-BDDF-EC0BCB023818}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="74">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -297,13 +298,25 @@
   </si>
   <si>
     <t>FileItem</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">TranNo = </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>findOnlyTran</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FileNo Desc</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -559,8 +572,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
-    <cellStyle name="一般 2 2" xfId="2"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -651,6 +664,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -686,6 +716,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -861,10 +908,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -1289,10 +1336,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
@@ -1327,6 +1374,17 @@
         <v>63</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
